--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaseStudy\Patch_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\166058\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Patching_day</t>
   </si>
@@ -92,16 +92,7 @@
     <t>DEV_1</t>
   </si>
   <si>
-    <t>25-12-2018</t>
-  </si>
-  <si>
     <t>Release_date</t>
-  </si>
-  <si>
-    <t>26-12-2018</t>
-  </si>
-  <si>
-    <t>30-12-2018</t>
   </si>
   <si>
     <t>Configuration_Item</t>
@@ -192,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +467,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,8 +502,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
+      <c r="D2" s="6">
+        <v>43460</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,8 +516,8 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
+      <c r="D3" s="6">
+        <v>43461</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,8 +530,8 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
+      <c r="D4" s="6">
+        <v>43462</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,8 +544,8 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
+      <c r="D5" s="6">
+        <v>43463</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,8 +558,8 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
+      <c r="D6" s="6">
+        <v>43464</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,8 +572,8 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
+      <c r="D7" s="6">
+        <v>43465</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,8 +586,8 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
+      <c r="D8" s="6">
+        <v>43466</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,8 +600,8 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
+      <c r="D9" s="6">
+        <v>43467</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,8 +614,8 @@
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
+      <c r="D10" s="6">
+        <v>43468</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,8 +628,8 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
+      <c r="D11" s="6">
+        <v>43469</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,8 +642,8 @@
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
+      <c r="D12" s="6">
+        <v>43470</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,8 +656,8 @@
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
+      <c r="D13" s="6">
+        <v>43471</v>
       </c>
     </row>
   </sheetData>

--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\166058\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaseStudy\Patch_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,6 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>43460</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="6">
-        <v>43461</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="6">
-        <v>43462</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="6">
-        <v>43463</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="6">
-        <v>43464</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6">
-        <v>43465</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6">
-        <v>43466</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="6">
-        <v>43467</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="6">
-        <v>43468</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="6">
-        <v>43469</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="6">
-        <v>43470</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="6">
-        <v>43471</v>
+        <v>43462</v>
       </c>
     </row>
   </sheetData>
